--- a/data/trans_dic/P36BPD13_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD13_2023-Estudios-trans_dic.xlsx
@@ -570,7 +570,7 @@
         <v>0.8842023343791354</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>0.8821586168186033</v>
+        <v>0.8821586168186032</v>
       </c>
     </row>
     <row r="5">
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8473234965612835</v>
+        <v>0.8524354023219702</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.8645391073809898</v>
+        <v>0.8665128006914847</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8656790647761804</v>
+        <v>0.8657984838326939</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9051591925683738</v>
+        <v>0.9054678271208144</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.9016215241002034</v>
+        <v>0.8999303190613538</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8947329320240187</v>
+        <v>0.8966625599563539</v>
       </c>
     </row>
     <row r="7">
@@ -622,7 +622,7 @@
         <v>0.8328419372168372</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>0.8688035741774076</v>
+        <v>0.8688035741774074</v>
       </c>
       <c r="E7" s="5" t="n">
         <v>0.8505808530597465</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8138731929933146</v>
+        <v>0.814482295412751</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8546788509802887</v>
+        <v>0.8544946922541112</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8383574739170594</v>
+        <v>0.8389761130566854</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.851759284589451</v>
+        <v>0.8509681923324542</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.8813571313753098</v>
+        <v>0.8812127396023846</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8617278046253624</v>
+        <v>0.8619924481150909</v>
       </c>
     </row>
     <row r="10">
@@ -680,7 +680,7 @@
         <v>0.8968409772271577</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.8778217830847009</v>
+        <v>0.877821783084701</v>
       </c>
     </row>
     <row r="11">
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.8258590401869284</v>
+        <v>0.8285038376851627</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.8752971381758305</v>
+        <v>0.8742994081782913</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8597173263936663</v>
+        <v>0.858238236393411</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.884712897551631</v>
+        <v>0.8861146423676284</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9171760290766019</v>
+        <v>0.9156244119368695</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.8959863822702019</v>
+        <v>0.895999381449179</v>
       </c>
     </row>
     <row r="13">
@@ -729,13 +729,13 @@
         </is>
       </c>
       <c r="C13" s="5" t="n">
-        <v>0.8456278721328014</v>
+        <v>0.8456278721328013</v>
       </c>
       <c r="D13" s="5" t="n">
         <v>0.8776840325172764</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>0.8620973974285286</v>
+        <v>0.8620973974285289</v>
       </c>
     </row>
     <row r="14">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8318773706090355</v>
+        <v>0.8312749826607431</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.8675757088552043</v>
+        <v>0.8677204133336882</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.8534377860337106</v>
+        <v>0.853509866959814</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.8586344657186091</v>
+        <v>0.8582953229083805</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8876337530974</v>
+        <v>0.8876421580707304</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.8705353662277083</v>
+        <v>0.8698777028862147</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>487602</v>
+        <v>490543</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>705837</v>
+        <v>707449</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>1204933</v>
+        <v>1205099</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>520884</v>
+        <v>521061</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>736113</v>
+        <v>734732</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>1245373</v>
+        <v>1248058</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>1805132</v>
+        <v>1806483</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>1845308</v>
+        <v>1844910</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>3669505</v>
+        <v>3672213</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>1889161</v>
+        <v>1887407</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>1902908</v>
+        <v>1902596</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>3771797</v>
+        <v>3772956</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>583784</v>
+        <v>585654</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>632898</v>
+        <v>632176</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1229351</v>
+        <v>1227236</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>625387</v>
+        <v>626378</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>663179</v>
+        <v>662057</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1281214</v>
+        <v>1281233</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>2911815</v>
+        <v>2909707</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>3208784</v>
+        <v>3209319</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>6143777</v>
+        <v>6144296</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>3005473</v>
+        <v>3004286</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>3282970</v>
+        <v>3283001</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>6266860</v>
+        <v>6262126</v>
       </c>
     </row>
     <row r="20">
